--- a/resources/train_schedule_green.xlsx
+++ b/resources/train_schedule_green.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/School/Systems Engineering/projects/ECE1140-Project/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/School/Systems Engineering/projects/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D1794-855F-7046-96E5-A990D72BA410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932EAFE4-81C4-154F-83D1-B0C0EF537BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{9CCCE8CB-C825-E347-AA21-A6346E2A08CF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{9CCCE8CB-C825-E347-AA21-A6346E2A08CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,43 +666,43 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:N2" si="0">E2+$E$143</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.3055555555555555E-2</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.4722222222222213E-2</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
-        <v>0.10416666666666666</v>
+        <v>0.10555555555555554</v>
       </c>
       <c r="K2" s="7">
         <f t="shared" si="0"/>
-        <v>0.12499999999999999</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" si="0"/>
-        <v>0.14583333333333331</v>
+        <v>0.14722222222222223</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.16805555555555557</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.18888888888888891</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
